--- a/Docs/SceneA.xlsx
+++ b/Docs/SceneA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20415" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="8415" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -85,7 +91,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -96,6 +102,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -395,7 +425,7 @@
   <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -424,99 +454,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-      <c r="U1" s="1">
-        <v>0</v>
-      </c>
-      <c r="V1">
-        <v>0</v>
-      </c>
-      <c r="W1">
-        <v>0</v>
-      </c>
-      <c r="X1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y1">
-        <v>0</v>
-      </c>
-      <c r="Z1">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB1">
-        <v>0</v>
-      </c>
-      <c r="AC1">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1">
+      <c r="A1" s="6">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7">
+        <v>0</v>
+      </c>
+      <c r="J1" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6">
+        <v>0</v>
+      </c>
+      <c r="L1" s="7">
+        <v>0</v>
+      </c>
+      <c r="M1" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7">
+        <v>0</v>
+      </c>
+      <c r="P1" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1" s="7">
+        <v>0</v>
+      </c>
+      <c r="S1" s="6">
+        <v>0</v>
+      </c>
+      <c r="T1" s="6">
+        <v>0</v>
+      </c>
+      <c r="U1" s="7">
+        <v>0</v>
+      </c>
+      <c r="V1" s="6">
+        <v>0</v>
+      </c>
+      <c r="W1" s="6">
+        <v>0</v>
+      </c>
+      <c r="X1" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2">
@@ -540,10 +570,10 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
         <v>0</v>
       </c>
       <c r="K2">
@@ -603,12 +633,12 @@
       <c r="AC2">
         <v>1</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="3" customFormat="1">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" s="3">
@@ -632,10 +662,10 @@
       <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3" s="3">
@@ -695,12 +725,12 @@
       <c r="AC3" s="3">
         <v>1</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>0</v>
       </c>
       <c r="B4">
@@ -787,12 +817,12 @@
       <c r="AC4">
         <v>1</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>0</v>
       </c>
       <c r="B5">
@@ -879,12 +909,12 @@
       <c r="AC5">
         <v>1</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="3" customFormat="1">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>0</v>
       </c>
       <c r="B6" s="3">
@@ -935,28 +965,28 @@
       <c r="Q6" s="3">
         <v>1</v>
       </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
         <v>0</v>
       </c>
       <c r="Z6" s="3">
@@ -971,12 +1001,12 @@
       <c r="AC6" s="3">
         <v>1</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>0</v>
       </c>
       <c r="B7">
@@ -1000,10 +1030,10 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
         <v>0</v>
       </c>
       <c r="K7">
@@ -1027,28 +1057,28 @@
       <c r="Q7">
         <v>1</v>
       </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7">
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
         <v>0</v>
       </c>
       <c r="Z7">
@@ -1063,12 +1093,12 @@
       <c r="AC7">
         <v>1</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>0</v>
       </c>
       <c r="B8">
@@ -1092,10 +1122,10 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>0</v>
       </c>
       <c r="K8">
@@ -1119,10 +1149,10 @@
       <c r="Q8">
         <v>1</v>
       </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
         <v>0</v>
       </c>
       <c r="T8">
@@ -1137,10 +1167,10 @@
       <c r="W8">
         <v>1</v>
       </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8">
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
         <v>0</v>
       </c>
       <c r="Z8">
@@ -1155,39 +1185,39 @@
       <c r="AC8">
         <v>1</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:30" s="3" customFormat="1">
-      <c r="A9" s="3">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="3">
@@ -1211,10 +1241,10 @@
       <c r="Q9" s="3">
         <v>1</v>
       </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
         <v>0</v>
       </c>
       <c r="T9" s="3">
@@ -1229,10 +1259,10 @@
       <c r="W9" s="3">
         <v>1</v>
       </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
         <v>0</v>
       </c>
       <c r="Z9" s="3">
@@ -1247,39 +1277,39 @@
       <c r="AC9" s="3">
         <v>1</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="A10" s="6">
+        <v>0</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
         <v>0</v>
       </c>
       <c r="K10">
@@ -1303,10 +1333,10 @@
       <c r="Q10">
         <v>1</v>
       </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10">
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
         <v>0</v>
       </c>
       <c r="T10">
@@ -1321,10 +1351,10 @@
       <c r="W10">
         <v>1</v>
       </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10">
+      <c r="X10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
         <v>0</v>
       </c>
       <c r="Z10">
@@ -1339,12 +1369,12 @@
       <c r="AC10">
         <v>1</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>0</v>
       </c>
       <c r="B11">
@@ -1395,10 +1425,10 @@
       <c r="Q11">
         <v>1</v>
       </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
         <v>0</v>
       </c>
       <c r="T11">
@@ -1413,10 +1443,10 @@
       <c r="W11">
         <v>1</v>
       </c>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y11">
+      <c r="X11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
         <v>0</v>
       </c>
       <c r="Z11">
@@ -1431,12 +1461,12 @@
       <c r="AC11">
         <v>1</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:30" s="3" customFormat="1">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>0</v>
       </c>
       <c r="B12" s="3">
@@ -1487,10 +1517,10 @@
       <c r="Q12" s="3">
         <v>1</v>
       </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
         <v>0</v>
       </c>
       <c r="T12" s="3">
@@ -1505,10 +1535,10 @@
       <c r="W12" s="3">
         <v>1</v>
       </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
         <v>0</v>
       </c>
       <c r="Z12" s="3">
@@ -1523,12 +1553,12 @@
       <c r="AC12" s="3">
         <v>1</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>0</v>
       </c>
       <c r="B13">
@@ -1579,10 +1609,10 @@
       <c r="Q13">
         <v>1</v>
       </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13">
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
         <v>0</v>
       </c>
       <c r="T13">
@@ -1597,10 +1627,10 @@
       <c r="W13">
         <v>1</v>
       </c>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y13">
+      <c r="X13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6">
         <v>0</v>
       </c>
       <c r="Z13">
@@ -1615,12 +1645,12 @@
       <c r="AC13">
         <v>1</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD13" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>0</v>
       </c>
       <c r="B14">
@@ -1671,10 +1701,10 @@
       <c r="Q14">
         <v>1</v>
       </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14">
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
         <v>0</v>
       </c>
       <c r="T14">
@@ -1689,10 +1719,10 @@
       <c r="W14">
         <v>1</v>
       </c>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y14">
+      <c r="X14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6">
         <v>0</v>
       </c>
       <c r="Z14">
@@ -1707,12 +1737,12 @@
       <c r="AC14">
         <v>1</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:30" s="3" customFormat="1">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>0</v>
       </c>
       <c r="B15" s="3">
@@ -1727,29 +1757,29 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1</v>
       </c>
       <c r="N15" s="3">
         <v>1</v>
@@ -1763,10 +1793,10 @@
       <c r="Q15" s="3">
         <v>1</v>
       </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
         <v>0</v>
       </c>
       <c r="T15" s="3">
@@ -1781,10 +1811,10 @@
       <c r="W15" s="3">
         <v>1</v>
       </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
         <v>0</v>
       </c>
       <c r="Z15" s="3">
@@ -1799,12 +1829,12 @@
       <c r="AC15" s="3">
         <v>1</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>0</v>
       </c>
       <c r="B16">
@@ -1819,29 +1849,29 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1891,12 +1921,12 @@
       <c r="AC16">
         <v>1</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AD16" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>0</v>
       </c>
       <c r="B17">
@@ -1911,10 +1941,10 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17">
@@ -1929,11 +1959,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1983,12 +2013,12 @@
       <c r="AC17">
         <v>1</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AD17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:30" s="3" customFormat="1">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>0</v>
       </c>
       <c r="B18" s="3">
@@ -2003,10 +2033,10 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
         <v>0</v>
       </c>
       <c r="H18" s="3">
@@ -2021,11 +2051,11 @@
       <c r="K18" s="3">
         <v>1</v>
       </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
+      <c r="L18" s="10">
+        <v>1</v>
+      </c>
+      <c r="M18" s="11">
+        <v>1</v>
       </c>
       <c r="N18" s="3">
         <v>1</v>
@@ -2075,12 +2105,12 @@
       <c r="AC18" s="3">
         <v>1</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>0</v>
       </c>
       <c r="B19">
@@ -2095,11 +2125,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2113,11 +2143,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+      <c r="L19" s="8">
+        <v>1</v>
+      </c>
+      <c r="M19" s="9">
+        <v>1</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2167,12 +2197,12 @@
       <c r="AC19">
         <v>1</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>0</v>
       </c>
       <c r="B20">
@@ -2187,11 +2217,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2205,11 +2235,11 @@
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2259,12 +2289,12 @@
       <c r="AC20">
         <v>1</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AD20" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:30" s="3" customFormat="1">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>0</v>
       </c>
       <c r="B21" s="3">
@@ -2279,11 +2309,11 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -2297,11 +2327,11 @@
       <c r="K21" s="3">
         <v>1</v>
       </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
+      <c r="L21" s="10">
+        <v>1</v>
+      </c>
+      <c r="M21" s="11">
+        <v>1</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -2351,12 +2381,12 @@
       <c r="AC21" s="3">
         <v>1</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>0</v>
       </c>
       <c r="B22">
@@ -2371,10 +2401,10 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
         <v>0</v>
       </c>
       <c r="H22">
@@ -2389,11 +2419,11 @@
       <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="9">
+        <v>1</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2443,12 +2473,12 @@
       <c r="AC22">
         <v>1</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>0</v>
       </c>
       <c r="B23">
@@ -2463,10 +2493,10 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
         <v>0</v>
       </c>
       <c r="H23">
@@ -2481,11 +2511,11 @@
       <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9">
+        <v>1</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2535,12 +2565,12 @@
       <c r="AC23">
         <v>1</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AD23" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:30" s="3" customFormat="1">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>0</v>
       </c>
       <c r="B24" s="3">
@@ -2555,10 +2585,10 @@
       <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
         <v>0</v>
       </c>
       <c r="H24" s="3">
@@ -2573,11 +2603,11 @@
       <c r="K24" s="3">
         <v>1</v>
       </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="10">
+        <v>1</v>
+      </c>
+      <c r="M24" s="11">
+        <v>1</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
@@ -2600,39 +2630,39 @@
       <c r="T24" s="3">
         <v>1</v>
       </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="2">
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>0</v>
       </c>
       <c r="B25">
@@ -2647,10 +2677,10 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
         <v>0</v>
       </c>
       <c r="H25">
@@ -2692,39 +2722,39 @@
       <c r="T25">
         <v>1</v>
       </c>
-      <c r="U25" s="1">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="1">
+      <c r="U25" s="7">
+        <v>0</v>
+      </c>
+      <c r="V25" s="6">
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <v>0</v>
+      </c>
+      <c r="X25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>0</v>
       </c>
       <c r="B26">
@@ -2739,10 +2769,10 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
         <v>0</v>
       </c>
       <c r="H26">
@@ -2784,10 +2814,10 @@
       <c r="T26">
         <v>1</v>
       </c>
-      <c r="U26" s="1">
-        <v>0</v>
-      </c>
-      <c r="V26">
+      <c r="U26" s="7">
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
         <v>0</v>
       </c>
       <c r="W26">
@@ -2811,12 +2841,12 @@
       <c r="AC26">
         <v>1</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AD26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:30" s="3" customFormat="1">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>0</v>
       </c>
       <c r="B27" s="3">
@@ -2831,26 +2861,26 @@
       <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1</v>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>1</v>
@@ -2876,10 +2906,10 @@
       <c r="T27" s="3">
         <v>1</v>
       </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="U27" s="5">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
         <v>0</v>
       </c>
       <c r="W27" s="3">
@@ -2903,12 +2933,12 @@
       <c r="AC27" s="3">
         <v>1</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>0</v>
       </c>
       <c r="B28">
@@ -2923,26 +2953,26 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1</v>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2995,12 +3025,12 @@
       <c r="AC28">
         <v>1</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AD28" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>0</v>
       </c>
       <c r="B29">
@@ -3015,28 +3045,28 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1</v>
-      </c>
-      <c r="M29">
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9">
         <v>1</v>
       </c>
       <c r="N29">
@@ -3087,12 +3117,12 @@
       <c r="AC29">
         <v>1</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AD29" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:30" s="3" customFormat="1">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>0</v>
       </c>
       <c r="B30" s="3">
@@ -3107,28 +3137,28 @@
       <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10">
+        <v>1</v>
+      </c>
+      <c r="M30" s="11">
         <v>1</v>
       </c>
       <c r="N30" s="3">
@@ -3179,12 +3209,12 @@
       <c r="AC30" s="3">
         <v>1</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31">
+      <c r="A31" s="6">
         <v>0</v>
       </c>
       <c r="B31">
@@ -3199,28 +3229,28 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1</v>
+      </c>
+      <c r="M31" s="9">
         <v>1</v>
       </c>
       <c r="N31">
@@ -3271,12 +3301,12 @@
       <c r="AC31">
         <v>1</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AD31" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32">
+      <c r="A32" s="6">
         <v>0</v>
       </c>
       <c r="B32">
@@ -3291,28 +3321,28 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1</v>
-      </c>
-      <c r="M32">
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="M32" s="9">
         <v>1</v>
       </c>
       <c r="N32">
@@ -3363,99 +3393,99 @@
       <c r="AC32">
         <v>1</v>
       </c>
-      <c r="AD32" s="1">
+      <c r="AD32" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:30" s="3" customFormat="1">
-      <c r="A33" s="3">
-        <v>0</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="2">
+      <c r="A33" s="4">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
+        <v>0</v>
+      </c>
+      <c r="T33" s="4">
+        <v>0</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0</v>
+      </c>
+      <c r="X33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="5">
         <v>0</v>
       </c>
     </row>
